--- a/output_cleaned.xlsx
+++ b/output_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,27 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Nama</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Nomor Telephone</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SMA/SMK/MA</t>
+          <t>Type</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Entry Date</t>
         </is>
